--- a/flashcards/Memcode - Latein - Fachvokabular Jus (JKU, Austria).xlsx
+++ b/flashcards/Memcode - Latein - Fachvokabular Jus (JKU, Austria).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DA770-F6E6-4709-89E3-0517162259A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9440F51-DC8E-4EA5-8A7F-2C5729794CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="390" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latein - Fachvokabular Rechtswi" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="2174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="2170">
   <si>
     <t>Question</t>
   </si>
@@ -2303,18 +2303,6 @@
     <t>niemand, der klug ist, straft, weil eine Verfehlung, begangen wurde, sondern damit in Hinkunft nicht mehr gefehlt wird</t>
   </si>
   <si>
-    <t>potest quam ipse habet</t>
-  </si>
-  <si>
-    <t>anderen übertragen, als er selbst hat</t>
-  </si>
-  <si>
-    <t>nemo plus iuris ad alium transferre</t>
-  </si>
-  <si>
-    <t>niemand kann mehr Recht an einen</t>
-  </si>
-  <si>
     <t>nemo iudex sine actore</t>
   </si>
   <si>
@@ -2325,18 +2313,6 @@
   </si>
   <si>
     <t>niemand sei Richter in eigener Sache</t>
-  </si>
-  <si>
-    <t>fieri debet</t>
-  </si>
-  <si>
-    <t>anderen bereichern</t>
-  </si>
-  <si>
-    <t>nemo cum damno alterius locupletior</t>
-  </si>
-  <si>
-    <t>niemand darf sich zum Schaden eines</t>
   </si>
   <si>
     <t>nemo</t>
@@ -6547,6 +6523,18 @@
   </si>
   <si>
     <t>superfluum n. / hyperocha</t>
+  </si>
+  <si>
+    <t>nemo cum damno alterius locupletior fieri debet</t>
+  </si>
+  <si>
+    <t>niemand darf sich zum Schaden eines anderen bereichern</t>
+  </si>
+  <si>
+    <t>nemo plus iuris ad alium transferre potest quam ipse habet</t>
+  </si>
+  <si>
+    <t>niemand kann mehr Recht an einen anderen übertragen, als er selbst hat</t>
   </si>
 </sst>
 </file>
@@ -6938,10 +6926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1089"/>
+  <dimension ref="A1:B1087"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="D383" sqref="D383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7015,7 +7003,7 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2173</v>
+        <v>2165</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -10005,5660 +9993,5644 @@
         <v>761</v>
       </c>
     </row>
-    <row r="383" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B384" s="2" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="384" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
+    <row r="385" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B385" s="2" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="385" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>768</v>
+        <v>2166</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>769</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="387" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B387" s="2" t="s">
+    </row>
+    <row r="390" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
+      <c r="B390" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="391" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="393" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="394" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="396" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B398" s="2" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="397" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
+    <row r="399" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B399" s="2" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="398" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
+    <row r="400" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B400" s="2" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B403" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="402" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
+    <row r="404" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B404" s="2" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="403" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
+    <row r="405" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B405" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="404" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
+    <row r="406" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B406" s="2" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="407" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B409" s="2" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="408" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+    <row r="410" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B410" s="2" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="409" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
+    <row r="411" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B411" s="2" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="410" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+    <row r="412" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B412" s="2" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="411" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
+    <row r="413" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B413" s="2" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="412" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
+    <row r="414" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B414" s="2" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="413" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
+    <row r="415" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B415" s="2" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="414" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
+    <row r="416" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B416" s="2" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="415" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
+    <row r="417" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B417" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="416" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
+    <row r="418" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B418" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="417" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
+    <row r="419" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B419" s="2" t="s">
         <v>830</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="420" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="421" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="423" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B425" s="2" t="s">
         <v>842</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A425" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="426" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="428" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B430" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="429" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="2" t="s">
+    <row r="431" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B431" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="430" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
+    <row r="432" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B432" s="2" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="431" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
+    <row r="433" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B433" s="2" t="s">
         <v>858</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="434" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B436" s="2" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="435" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
+    <row r="437" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B437" s="2" t="s">
         <v>866</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A437" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="438" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B440" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="439" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A439" s="2" t="s">
+    <row r="441" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B441" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="440" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
+    <row r="442" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B442" s="2" t="s">
         <v>876</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="443" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="444" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="445" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B447" s="2" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="446" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
+    <row r="448" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B448" s="2" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="447" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
+    <row r="449" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B449" s="2" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="448" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
+    <row r="450" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B450" s="2" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="449" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
+    <row r="451" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B451" s="2" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="450" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
+    <row r="452" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B452" s="2" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="453" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="454" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="456" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B458" s="2" t="s">
         <v>908</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="B457" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="459" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="461" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B463" s="2" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="462" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
+    <row r="464" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B464" s="2" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="463" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
+    <row r="465" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B465" s="2" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="464" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
+    <row r="466" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B466" s="2" t="s">
         <v>924</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="467" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="468" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="470" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="471" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="472" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="473" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="474" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="B474" s="2" t="s">
+      <c r="B476" s="2" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="475" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
+    <row r="477" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B477" s="2" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="476" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
+    <row r="478" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B478" s="2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="477" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
+    <row r="479" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B479" s="2" t="s">
         <v>950</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="480" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B482" s="2" t="s">
         <v>956</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="483" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B485" s="2" t="s">
         <v>962</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="486" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="487" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B489" s="2" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="488" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
+    <row r="490" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B490" s="2" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="489" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
+    <row r="491" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B491" s="2" t="s">
         <v>974</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A490" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A491" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="492" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="493" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B495" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="494" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A494" s="2" t="s">
+    <row r="496" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B496" s="2" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="495" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A495" s="2" t="s">
+    <row r="497" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B497" s="2" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="496" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
+    <row r="498" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B498" s="2" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="497" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A497" s="2" t="s">
+    <row r="499" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B499" s="2" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="498" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A498" s="2" t="s">
+    <row r="500" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B500" s="2" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="499" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A499" s="2" t="s">
+    <row r="501" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B501" s="2" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="500" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
+    <row r="502" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B502" s="2" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="501" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A501" s="2" t="s">
+    <row r="503" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B503" s="2" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="502" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A502" s="2" t="s">
+    <row r="504" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B504" s="2" t="s">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A503" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A504" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="505" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B507" s="2" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="506" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
+    <row r="508" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B508" s="2" t="s">
         <v>1008</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A508" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="509" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="511" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="513" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="515" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="516" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B518" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="517" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A517" s="2" t="s">
+    <row r="519" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B519" s="2" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="518" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
+    <row r="520" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B520" s="2" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="519" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A519" s="2" t="s">
+    <row r="521" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B521" s="2" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="520" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A520" s="2" t="s">
+    <row r="522" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B522" s="2" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="521" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
+    <row r="523" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B523" s="2" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="522" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
+    <row r="524" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B524" s="2" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="523" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A523" s="2" t="s">
+    <row r="525" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B525" s="2" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="524" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A524" s="2" t="s">
+    <row r="526" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B526" s="2" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="525" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A525" s="2" t="s">
+    <row r="527" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B527" s="2" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="526" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
+    <row r="528" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B528" s="2" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="527" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
+    <row r="529" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B529" s="2" t="s">
         <v>1050</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A528" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="530" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="532" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B534" s="2" t="s">
         <v>1060</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B533" s="2" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B534" s="2" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="535" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B537" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="536" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
+    <row r="538" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B538" s="2" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="537" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
+    <row r="539" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B539" s="2" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="538" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
+    <row r="540" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B540" s="2" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="539" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
+    <row r="541" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="B541" s="2" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="540" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
+    <row r="542" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B542" s="2" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="541" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A541" s="2" t="s">
+    <row r="543" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B543" s="2" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="542" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A542" s="2" t="s">
+    <row r="544" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B544" s="2" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="543" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A543" s="2" t="s">
+    <row r="545" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B545" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="544" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
+    <row r="546" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B546" s="2" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="545" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
+    <row r="547" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B547" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="546" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
+    <row r="548" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B548" s="2" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="547" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
+    <row r="549" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B549" s="2" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="548" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
+    <row r="550" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B550" s="2" t="s">
         <v>1092</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B549" s="2" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="551" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B553" s="2" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="552" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
+    <row r="554" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B554" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="553" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
+    <row r="555" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="B555" s="2" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="554" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
+    <row r="556" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B556" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="555" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
+    <row r="557" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B557" s="2" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="556" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
+    <row r="558" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B558" s="2" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="557" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
+    <row r="559" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="B557" s="2" t="s">
+      <c r="B559" s="2" t="s">
         <v>1110</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="560" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B562" s="2" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="561" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A561" s="2" t="s">
+    <row r="563" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B563" s="2" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="562" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A562" s="2" t="s">
+    <row r="564" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="B564" s="2" t="s">
         <v>1120</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A563" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A564" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B564" s="2" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="565" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="566" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="B568" s="2" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="567" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A567" s="2" t="s">
+    <row r="569" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="B569" s="2" t="s">
         <v>1130</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A568" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A569" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B569" s="2" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="570" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A571" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="B570" s="2" t="s">
+      <c r="B572" s="2" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="571" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A571" s="2" t="s">
+    <row r="573" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="B573" s="2" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="572" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A572" s="2" t="s">
+    <row r="574" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="B574" s="2" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="573" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A573" s="2" t="s">
+    <row r="575" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="B573" s="2" t="s">
+      <c r="B575" s="2" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="574" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A574" s="2" t="s">
+    <row r="576" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="B576" s="2" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A575" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A576" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B576" s="2" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="577" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="B577" s="2" t="s">
+      <c r="B579" s="2" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="578" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="2" t="s">
+    <row r="580" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="B578" s="2" t="s">
+      <c r="B580" s="2" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="579" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A579" s="2" t="s">
+    <row r="581" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B581" s="2" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="580" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A580" s="2" t="s">
+    <row r="582" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="B580" s="2" t="s">
+      <c r="B582" s="2" t="s">
         <v>1156</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A581" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B581" s="2" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A582" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B582" s="2" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="583" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="584" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B586" s="2" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="585" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A585" s="2" t="s">
+    <row r="587" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="B585" s="2" t="s">
+      <c r="B587" s="2" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="586" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A586" s="2" t="s">
+    <row r="588" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="B586" s="2" t="s">
+      <c r="B588" s="2" t="s">
         <v>1168</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A587" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B587" s="2" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A588" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B588" s="2" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="589" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="590" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B592" s="2" t="s">
         <v>1176</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A591" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B591" s="2" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A592" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B592" s="2" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="593" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="B593" s="2" t="s">
+      <c r="B595" s="2" t="s">
         <v>1182</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A594" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B594" s="2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A595" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B595" s="2" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="596" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B598" s="2" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="597" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A597" s="2" t="s">
+    <row r="599" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="B597" s="2" t="s">
+      <c r="B599" s="2" t="s">
         <v>1190</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A598" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B598" s="2" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A599" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B599" s="2" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="600" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="602" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="603" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="604" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="606" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="607" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="B607" s="2" t="s">
+      <c r="B609" s="2" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="608" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A608" s="2" t="s">
+    <row r="610" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="B608" s="2" t="s">
+      <c r="B610" s="2" t="s">
         <v>1212</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A609" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B609" s="2" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A610" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B610" s="2" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="611" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A613" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="B611" s="2" t="s">
+      <c r="B613" s="2" t="s">
         <v>1218</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A612" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B612" s="2" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A613" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B613" s="2" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="614" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="616" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="617" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="619" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A620" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A621" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B621" s="2" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="620" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A620" s="2" t="s">
+    <row r="622" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A622" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="B620" s="2" t="s">
+      <c r="B622" s="2" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="621" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A621" s="2" t="s">
+    <row r="623" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A623" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="B621" s="2" t="s">
+      <c r="B623" s="2" t="s">
         <v>1238</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A622" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B622" s="2" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A623" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B623" s="2" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="624" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="625" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A627" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="B625" s="2" t="s">
+      <c r="B627" s="2" t="s">
         <v>1246</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A626" s="2" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B626" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A627" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B627" s="2" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="628" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="630" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="632" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="634" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A635" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A636" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="B634" s="2" t="s">
+      <c r="B636" s="2" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="635" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A635" s="2" t="s">
+    <row r="637" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A637" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="B635" s="2" t="s">
+      <c r="B637" s="2" t="s">
         <v>1266</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A636" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B636" s="2" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A637" s="2" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B637" s="2" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="638" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1274</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="640" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="641" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1154</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="642" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="643" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A644" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A645" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B645" s="2" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="644" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A644" s="2" t="s">
+    <row r="646" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="B644" s="2" t="s">
+      <c r="B646" s="2" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="645" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A645" s="2" t="s">
+    <row r="647" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A647" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="B645" s="2" t="s">
+      <c r="B647" s="2" t="s">
         <v>1285</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A646" s="2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B646" s="2" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A647" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B647" s="2" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="648" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="649" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="650" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="652" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="654" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="655" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="656" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="657" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="659" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="661" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A663" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="B661" s="2" t="s">
+      <c r="B663" s="2" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="662" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A662" s="2" t="s">
+    <row r="664" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="B662" s="2" t="s">
+      <c r="B664" s="2" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="663" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A663" s="2" t="s">
+    <row r="665" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="B663" s="2" t="s">
+      <c r="B665" s="2" t="s">
         <v>1321</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A664" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B664" s="2" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A665" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B665" s="2" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="666" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A667" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="B666" s="2" t="s">
+      <c r="B668" s="2" t="s">
         <v>1327</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A667" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B667" s="2" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A668" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B668" s="2" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="669" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="B669" s="2" t="s">
+      <c r="B671" s="2" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="670" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A670" s="2" t="s">
+    <row r="672" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B672" s="2" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="671" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A671" s="2" t="s">
+    <row r="673" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="B671" s="2" t="s">
+      <c r="B673" s="2" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="672" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A672" s="2" t="s">
+    <row r="674" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="B672" s="2" t="s">
+      <c r="B674" s="2" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="673" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A673" s="2" t="s">
+    <row r="675" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A675" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="B673" s="2" t="s">
+      <c r="B675" s="2" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="674" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A674" s="2" t="s">
+    <row r="676" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="B674" s="2" t="s">
+      <c r="B676" s="2" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="675" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A675" s="2" t="s">
+    <row r="677" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="B675" s="2" t="s">
+      <c r="B677" s="2" t="s">
         <v>1345</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A676" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B676" s="2" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A677" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B677" s="2" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="678" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="680" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A681" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="B680" s="2" t="s">
+      <c r="B682" s="2" t="s">
         <v>1355</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A681" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B681" s="2" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A682" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B682" s="2" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="683" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="684" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="686" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="687" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="688" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="690" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="691" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="692" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="694" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="696" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="698" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A699" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A700" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="B698" s="2" t="s">
+      <c r="B700" s="2" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="699" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A699" s="2" t="s">
+    <row r="701" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A701" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B701" s="2" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="700" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A700" s="2" t="s">
+    <row r="702" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A702" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B702" s="2" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="701" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A701" s="2" t="s">
+    <row r="703" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A703" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="B701" s="2" t="s">
+      <c r="B703" s="2" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="702" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A702" s="2" t="s">
+    <row r="704" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A704" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B704" s="2" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="703" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A703" s="2" t="s">
+    <row r="705" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A705" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B705" s="2" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="704" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A704" s="2" t="s">
+    <row r="706" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A706" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="B706" s="2" t="s">
         <v>1403</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A705" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B705" s="2" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A706" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B706" s="2" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="707" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="708" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="710" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="711" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="712" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="713" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="715" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A717" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="B715" s="2" t="s">
+      <c r="B717" s="2" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="716" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A716" s="2" t="s">
+    <row r="718" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A718" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="B716" s="2" t="s">
+      <c r="B718" s="2" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="717" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A717" s="2" t="s">
+    <row r="719" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A719" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="B717" s="2" t="s">
+      <c r="B719" s="2" t="s">
         <v>1429</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A718" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B718" s="2" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A719" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B719" s="2" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="720" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="722" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A724" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="B722" s="2" t="s">
+      <c r="B724" s="2" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="723" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A723" s="2" t="s">
+    <row r="725" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
         <v>1440</v>
       </c>
-      <c r="B723" s="2" t="s">
+      <c r="B725" s="2" t="s">
         <v>1441</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A724" s="2" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B724" s="2" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A725" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B725" s="2" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="726" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A727" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="B726" s="2" t="s">
+      <c r="B728" s="2" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="727" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A727" s="2" t="s">
+    <row r="729" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="B727" s="2" t="s">
+      <c r="B729" s="2" t="s">
         <v>1449</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A728" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B728" s="2" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A729" s="2" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B729" s="2" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="730" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="731" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="733" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="B735" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="734" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A734" s="2" t="s">
+    <row r="736" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="B734" s="2" t="s">
+      <c r="B736" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="735" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A735" s="2" t="s">
+    <row r="737" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="B735" s="2" t="s">
+      <c r="B737" s="2" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="736" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A736" s="2" t="s">
+    <row r="738" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="B736" s="2" t="s">
+      <c r="B738" s="2" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="737" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A737" s="2" t="s">
+    <row r="739" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="B737" s="2" t="s">
+      <c r="B739" s="2" t="s">
         <v>1469</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A738" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B738" s="2" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A739" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B739" s="2" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="740" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A741" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A742" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="B740" s="2" t="s">
+      <c r="B742" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="741" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A741" s="2" t="s">
+    <row r="743" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="B741" s="2" t="s">
+      <c r="B743" s="2" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="742" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A742" s="2" t="s">
+    <row r="744" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="B742" s="2" t="s">
+      <c r="B744" s="2" t="s">
         <v>1479</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A743" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B743" s="2" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A744" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B744" s="2" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="745" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="B745" s="2" t="s">
+      <c r="B747" s="2" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="746" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A746" s="2" t="s">
+    <row r="748" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="B746" s="2" t="s">
+      <c r="B748" s="2" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="747" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A747" s="2" t="s">
+    <row r="749" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A749" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="B747" s="2" t="s">
+      <c r="B749" s="2" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="748" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A748" s="2" t="s">
+    <row r="750" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A750" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="B748" s="2" t="s">
+      <c r="B750" s="2" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="749" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A749" s="2" t="s">
+    <row r="751" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A751" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="B749" s="2" t="s">
+      <c r="B751" s="2" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="750" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A750" s="2" t="s">
+    <row r="752" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="B750" s="2" t="s">
+      <c r="B752" s="2" t="s">
         <v>1495</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A751" s="2" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B751" s="2" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A752" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B752" s="2" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="753" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A755" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="B753" s="2" t="s">
+      <c r="B755" s="2" t="s">
         <v>1501</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A754" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B754" s="2" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A755" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B755" s="2" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="756" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="757" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="758" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="760" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A761" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A762" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="B760" s="2" t="s">
+      <c r="B762" s="2" t="s">
         <v>1515</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A761" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B761" s="2" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A762" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B762" s="2" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="763" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="765" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A766" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A767" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="B765" s="2" t="s">
+      <c r="B767" s="2" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="766" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A766" s="2" t="s">
+    <row r="768" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A768" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="B768" s="2" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="767" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A767" s="2" t="s">
+    <row r="769" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A769" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="B767" s="2" t="s">
+      <c r="B769" s="2" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="768" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A768" s="2" t="s">
+    <row r="770" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A770" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="B770" s="2" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="769" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A769" s="2" t="s">
+    <row r="771" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A771" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="B769" s="2" t="s">
+      <c r="B771" s="2" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="770" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A770" s="2" t="s">
+    <row r="772" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A772" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="B772" s="2" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="771" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A771" s="2" t="s">
+    <row r="773" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A773" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="B771" s="2" t="s">
+      <c r="B773" s="2" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="772" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A772" s="2" t="s">
+    <row r="774" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A774" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="B772" s="2" t="s">
+      <c r="B774" s="2" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="773" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A773" s="2" t="s">
+    <row r="775" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A775" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="B773" s="2" t="s">
+      <c r="B775" s="2" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="774" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A774" s="2" t="s">
+    <row r="776" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="B776" s="2" t="s">
         <v>1543</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A775" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A776" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B776" s="2" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="777" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A778" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A779" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B777" s="2" t="s">
+      <c r="B779" s="2" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="778" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A778" s="2" t="s">
+    <row r="780" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A780" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="B778" s="2" t="s">
+      <c r="B780" s="2" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="779" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A779" s="2" t="s">
+    <row r="781" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A781" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="B779" s="2" t="s">
+      <c r="B781" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="780" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A780" s="2" t="s">
+    <row r="782" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A782" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="B780" s="2" t="s">
+      <c r="B782" s="2" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="781" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A781" s="2" t="s">
+    <row r="783" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A783" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="B781" s="2" t="s">
+      <c r="B783" s="2" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="782" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A782" s="2" t="s">
+    <row r="784" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A784" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="B782" s="2" t="s">
+      <c r="B784" s="2" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="783" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A783" s="2" t="s">
+    <row r="785" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A785" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="B783" s="2" t="s">
+      <c r="B785" s="2" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="784" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A784" s="2" t="s">
+    <row r="786" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A786" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="B784" s="2" t="s">
+      <c r="B786" s="2" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="785" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A785" s="2" t="s">
+    <row r="787" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A787" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="B785" s="2" t="s">
+      <c r="B787" s="2" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="786" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A786" s="2" t="s">
+    <row r="788" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A788" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="B786" s="2" t="s">
+      <c r="B788" s="2" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="787" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A787" s="2" t="s">
+    <row r="789" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A789" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="B787" s="2" t="s">
+      <c r="B789" s="2" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="788" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A788" s="2" t="s">
+    <row r="790" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A790" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="B788" s="2" t="s">
+      <c r="B790" s="2" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="789" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A789" s="2" t="s">
+    <row r="791" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A791" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="B789" s="2" t="s">
+      <c r="B791" s="2" t="s">
         <v>1573</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A790" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B790" s="2" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A791" s="2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B791" s="2" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="792" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A793" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A794" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="B792" s="2" t="s">
+      <c r="B794" s="2" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="793" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A793" s="2" t="s">
+    <row r="795" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A795" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="B793" s="2" t="s">
+      <c r="B795" s="2" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="794" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A794" s="2" t="s">
+    <row r="796" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A796" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="B794" s="2" t="s">
+      <c r="B796" s="2" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="795" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A795" s="2" t="s">
+    <row r="797" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A797" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="B795" s="2" t="s">
+      <c r="B797" s="2" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="796" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A796" s="2" t="s">
+    <row r="798" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A798" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="B796" s="2" t="s">
+      <c r="B798" s="2" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="797" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A797" s="2" t="s">
+    <row r="799" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A799" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="B797" s="2" t="s">
+      <c r="B799" s="2" t="s">
         <v>1589</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A798" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B798" s="2" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A799" s="2" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B799" s="2" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="800" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="802" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A803" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A804" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="B802" s="2" t="s">
+      <c r="B804" s="2" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="803" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A803" s="2" t="s">
+    <row r="805" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A805" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="B803" s="2" t="s">
+      <c r="B805" s="2" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="804" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A804" s="2" t="s">
+    <row r="806" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A806" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="B804" s="2" t="s">
+      <c r="B806" s="2" t="s">
         <v>1603</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A805" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B805" s="2" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A806" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B806" s="2" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="807" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A808" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A809" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="B807" s="2" t="s">
+      <c r="B809" s="2" t="s">
         <v>1609</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A808" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B808" s="2" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A809" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B809" s="2" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="810" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A811" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A812" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="B810" s="2" t="s">
+      <c r="B812" s="2" t="s">
         <v>1615</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A811" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B811" s="2" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A812" s="2" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B812" s="2" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="813" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="814" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A815" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A816" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="B814" s="2" t="s">
+      <c r="B816" s="2" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="815" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A815" s="2" t="s">
+    <row r="817" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="B815" s="2" t="s">
+      <c r="B817" s="2" t="s">
         <v>1625</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A816" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B816" s="2" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A817" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B817" s="2" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="818" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="820" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="821" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A822" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A823" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B821" s="2" t="s">
+      <c r="B823" s="2" t="s">
         <v>1637</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A822" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B822" s="2" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A823" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B823" s="2" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="824" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A825" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A826" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="B824" s="2" t="s">
+      <c r="B826" s="2" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="825" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A825" s="2" t="s">
+    <row r="827" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="B825" s="2" t="s">
+      <c r="B827" s="2" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="826" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A826" s="2" t="s">
+    <row r="828" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="B826" s="2" t="s">
+      <c r="B828" s="2" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A827" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B827" s="2" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A828" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B828" s="2" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="829" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="830" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="831" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A832" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A833" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="B831" s="2" t="s">
+      <c r="B833" s="2" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="832" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A832" s="2" t="s">
+    <row r="834" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A834" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="B832" s="2" t="s">
+      <c r="B834" s="2" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="833" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A833" s="2" t="s">
+    <row r="835" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A835" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="B833" s="2" t="s">
+      <c r="B835" s="2" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="834" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A834" s="2" t="s">
+    <row r="836" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A836" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="B834" s="2" t="s">
+      <c r="B836" s="2" t="s">
         <v>1663</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A835" s="2" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B835" s="2" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A836" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B836" s="2" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="837" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="838" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="840" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="841" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="842" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A843" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A844" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="B842" s="2" t="s">
+      <c r="B844" s="2" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="843" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A843" s="2" t="s">
+    <row r="845" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A845" s="2" t="s">
         <v>1680</v>
       </c>
-      <c r="B843" s="2" t="s">
+      <c r="B845" s="2" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="844" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A844" s="2" t="s">
+    <row r="846" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A846" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="B844" s="2" t="s">
+      <c r="B846" s="2" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="845" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A845" s="2" t="s">
+    <row r="847" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A847" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="B845" s="2" t="s">
+      <c r="B847" s="2" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="846" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A846" s="2" t="s">
+    <row r="848" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A848" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="B846" s="2" t="s">
+      <c r="B848" s="2" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="847" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A847" s="2" t="s">
+    <row r="849" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A849" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="B847" s="2" t="s">
+      <c r="B849" s="2" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="848" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A848" s="2" t="s">
+    <row r="850" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A850" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="B848" s="2" t="s">
+      <c r="B850" s="2" t="s">
         <v>1691</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A849" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B849" s="2" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A850" s="2" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B850" s="2" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="851" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="852" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A853" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A854" s="2" t="s">
         <v>1698</v>
       </c>
-      <c r="B852" s="2" t="s">
+      <c r="B854" s="2" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="853" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A853" s="2" t="s">
+    <row r="855" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A855" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="B853" s="2" t="s">
+      <c r="B855" s="2" t="s">
         <v>1701</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A854" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B854" s="2" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A855" s="2" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B855" s="2" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="856" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="857" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="859" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A860" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A861" s="2" t="s">
         <v>1712</v>
       </c>
-      <c r="B859" s="2" t="s">
+      <c r="B861" s="2" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="860" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A860" s="2" t="s">
+    <row r="862" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A862" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="B860" s="2" t="s">
+      <c r="B862" s="2" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="861" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A861" s="2" t="s">
+    <row r="863" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A863" s="2" t="s">
         <v>1716</v>
       </c>
-      <c r="B861" s="2" t="s">
+      <c r="B863" s="2" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="862" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A862" s="2" t="s">
+    <row r="864" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="B862" s="2" t="s">
+      <c r="B864" s="2" t="s">
         <v>1719</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A863" s="2" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B863" s="2" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A864" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B864" s="2" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="865" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="B865" s="2" t="s">
+      <c r="B867" s="2" t="s">
         <v>1725</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A866" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B866" s="2" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A867" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B867" s="2" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="868" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="869" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A870" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A871" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="B869" s="2" t="s">
+      <c r="B871" s="2" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="870" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A870" s="2" t="s">
+    <row r="872" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A872" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="B870" s="2" t="s">
+      <c r="B872" s="2" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="871" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A871" s="2" t="s">
+    <row r="873" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A873" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="B871" s="2" t="s">
+      <c r="B873" s="2" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="872" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A872" s="2" t="s">
+    <row r="874" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A874" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="B872" s="2" t="s">
+      <c r="B874" s="2" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="873" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A873" s="2" t="s">
+    <row r="875" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A875" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="B873" s="2" t="s">
+      <c r="B875" s="2" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="874" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A874" s="2" t="s">
+    <row r="876" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A876" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="B874" s="2" t="s">
+      <c r="B876" s="2" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="875" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A875" s="2" t="s">
+    <row r="877" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="s">
         <v>1744</v>
       </c>
-      <c r="B875" s="2" t="s">
+      <c r="B877" s="2" t="s">
         <v>1745</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A876" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B876" s="2" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A877" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B877" s="2" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="878" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="B878" s="2" t="s">
+      <c r="B880" s="2" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="879" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A879" s="2" t="s">
+    <row r="881" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="B879" s="2" t="s">
+      <c r="B881" s="2" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="880" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A880" s="2" t="s">
+    <row r="882" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A882" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="B880" s="2" t="s">
+      <c r="B882" s="2" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="881" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A881" s="2" t="s">
+    <row r="883" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A883" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="B881" s="2" t="s">
+      <c r="B883" s="2" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="882" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A882" s="2" t="s">
+    <row r="884" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A884" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="B882" s="2" t="s">
+      <c r="B884" s="2" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="883" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A883" s="2" t="s">
+    <row r="885" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A885" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="B883" s="2" t="s">
+      <c r="B885" s="2" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="884" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A884" s="2" t="s">
+    <row r="886" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A886" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="B884" s="2" t="s">
+      <c r="B886" s="2" t="s">
         <v>1763</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A885" s="2" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B885" s="2" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A886" s="2" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B886" s="2" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="887" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="888" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A889" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A890" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="B888" s="2" t="s">
+      <c r="B890" s="2" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="889" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A889" s="2" t="s">
+    <row r="891" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A891" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="B889" s="2" t="s">
+      <c r="B891" s="2" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="890" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A890" s="2" t="s">
+    <row r="892" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A892" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="B890" s="2" t="s">
+      <c r="B892" s="2" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="891" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A891" s="2" t="s">
+    <row r="893" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A893" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="B891" s="2" t="s">
+      <c r="B893" s="2" t="s">
         <v>1777</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A892" s="2" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B892" s="2" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A893" s="2" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B893" s="2" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="894" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A896" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="B894" s="2" t="s">
+      <c r="B896" s="2" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="895" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A895" s="2" t="s">
+    <row r="897" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A897" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="B895" s="2" t="s">
+      <c r="B897" s="2" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="896" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A896" s="2" t="s">
+    <row r="898" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A898" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="B896" s="2" t="s">
+      <c r="B898" s="2" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="897" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A897" s="2" t="s">
+    <row r="899" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A899" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="B897" s="2" t="s">
+      <c r="B899" s="2" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="898" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A898" s="2" t="s">
+    <row r="900" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A900" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="B898" s="2" t="s">
+      <c r="B900" s="2" t="s">
         <v>1791</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A899" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B899" s="2" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A900" s="2" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B900" s="2" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="901" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="902" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="903" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="904" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="905" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A906" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A907" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="B905" s="2" t="s">
+      <c r="B907" s="2" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="906" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A906" s="2" t="s">
+    <row r="908" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A908" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="B906" s="2" t="s">
+      <c r="B908" s="2" t="s">
         <v>1807</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A907" s="2" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B907" s="2" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A908" s="2" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B908" s="2" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="909" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A910" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A911" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="B909" s="2" t="s">
+      <c r="B911" s="2" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="910" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A910" s="2" t="s">
+    <row r="912" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A912" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="B910" s="2" t="s">
+      <c r="B912" s="2" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="911" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A911" s="2" t="s">
+    <row r="913" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A913" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="B911" s="2" t="s">
+      <c r="B913" s="2" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="912" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A912" s="2" t="s">
+    <row r="914" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A914" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="B912" s="2" t="s">
+      <c r="B914" s="2" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="913" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A913" s="2" t="s">
+    <row r="915" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="B913" s="2" t="s">
+      <c r="B915" s="2" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="914" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A914" s="2" t="s">
+    <row r="916" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A916" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="B914" s="2" t="s">
+      <c r="B916" s="2" t="s">
         <v>1823</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A915" s="2" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B915" s="2" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A916" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B916" s="2" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="917" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="918" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="919" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="920" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="921" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A922" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A923" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="B921" s="2" t="s">
+      <c r="B923" s="2" t="s">
         <v>1837</v>
-      </c>
-    </row>
-    <row r="922" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A922" s="2" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B922" s="2" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="923" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A923" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B923" s="2" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="924" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A925" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A926" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="B924" s="2" t="s">
+      <c r="B926" s="2" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="925" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A925" s="2" t="s">
+    <row r="927" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A927" s="2" t="s">
         <v>1844</v>
       </c>
-      <c r="B925" s="2" t="s">
+      <c r="B927" s="2" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="926" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A926" s="2" t="s">
+    <row r="928" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A928" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="B926" s="2" t="s">
+      <c r="B928" s="2" t="s">
         <v>1847</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A927" s="2" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B927" s="2" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="928" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A928" s="2" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B928" s="2" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="929" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="930" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="931" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="932" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="933" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="934" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A935" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A936" s="2" t="s">
         <v>1862</v>
       </c>
-      <c r="B934" s="2" t="s">
+      <c r="B936" s="2" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="935" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A935" s="2" t="s">
+    <row r="937" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A937" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="B935" s="2" t="s">
+      <c r="B937" s="2" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="936" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A936" s="2" t="s">
+    <row r="938" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A938" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="B936" s="2" t="s">
+      <c r="B938" s="2" t="s">
         <v>1867</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A937" s="2" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B937" s="2" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A938" s="2" t="s">
-        <v>1870</v>
-      </c>
-      <c r="B938" s="2" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="939" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A940" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A941" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="B939" s="2" t="s">
+      <c r="B941" s="2" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="940" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A940" s="2" t="s">
+    <row r="942" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A942" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="B940" s="2" t="s">
+      <c r="B942" s="2" t="s">
         <v>1875</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A941" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B941" s="2" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A942" s="2" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B942" s="2" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="943" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A944" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A945" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="B943" s="2" t="s">
+      <c r="B945" s="2" t="s">
         <v>1881</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A944" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B944" s="2" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A945" s="2" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B945" s="2" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="946" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="948" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A949" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A950" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="B948" s="2" t="s">
+      <c r="B950" s="2" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="949" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A949" s="2" t="s">
+    <row r="951" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A951" s="2" t="s">
         <v>1892</v>
       </c>
-      <c r="B949" s="2" t="s">
+      <c r="B951" s="2" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="950" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A950" s="2" t="s">
+    <row r="952" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A952" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="B950" s="2" t="s">
+      <c r="B952" s="2" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="951" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A951" s="2" t="s">
+    <row r="953" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A953" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="B951" s="2" t="s">
+      <c r="B953" s="2" t="s">
         <v>1897</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A952" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B952" s="2" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A953" s="2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B953" s="2" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="954" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A955" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A956" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="B954" s="2" t="s">
+      <c r="B956" s="2" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="955" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A955" s="2" t="s">
+    <row r="957" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A957" s="2" t="s">
         <v>1904</v>
       </c>
-      <c r="B955" s="2" t="s">
+      <c r="B957" s="2" t="s">
         <v>1905</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A956" s="2" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B956" s="2" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A957" s="2" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B957" s="2" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="958" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="B959" s="2" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="960" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A961" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A962" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="B960" s="2" t="s">
+      <c r="B962" s="2" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="961" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A961" s="2" t="s">
+    <row r="963" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A963" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="B961" s="2" t="s">
+      <c r="B963" s="2" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="962" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A962" s="2" t="s">
+    <row r="964" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A964" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="B962" s="2" t="s">
+      <c r="B964" s="2" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="963" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A963" s="2" t="s">
+    <row r="965" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A965" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="B963" s="2" t="s">
+      <c r="B965" s="2" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="964" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A964" s="2" t="s">
+    <row r="966" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A966" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="B964" s="2" t="s">
+      <c r="B966" s="2" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="965" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A965" s="2" t="s">
+    <row r="967" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A967" s="2" t="s">
         <v>1924</v>
       </c>
-      <c r="B965" s="2" t="s">
+      <c r="B967" s="2" t="s">
         <v>1925</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A966" s="2" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B966" s="2" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A967" s="2" t="s">
-        <v>1928</v>
-      </c>
-      <c r="B967" s="2" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="968" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A968" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A969" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A970" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="B968" s="2" t="s">
+      <c r="B970" s="2" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="969" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A969" s="2" t="s">
+    <row r="971" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A971" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="B969" s="2" t="s">
+      <c r="B971" s="2" t="s">
         <v>1933</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A970" s="2" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B970" s="2" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A971" s="2" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B971" s="2" t="s">
-        <v>1937</v>
       </c>
     </row>
     <row r="972" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="973" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A974" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A975" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="B973" s="2" t="s">
+      <c r="B975" s="2" t="s">
         <v>1941</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A974" s="2" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B974" s="2" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A975" s="2" t="s">
-        <v>1944</v>
-      </c>
-      <c r="B975" s="2" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="976" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A977" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A978" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="B976" s="2" t="s">
+      <c r="B978" s="2" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="977" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A977" s="2" t="s">
+    <row r="979" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A979" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="B977" s="2" t="s">
+      <c r="B979" s="2" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="978" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A978" s="2" t="s">
+    <row r="980" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A980" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="B978" s="2" t="s">
+      <c r="B980" s="2" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="979" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A979" s="2" t="s">
+    <row r="981" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A981" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="B979" s="2" t="s">
+      <c r="B981" s="2" t="s">
         <v>1953</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A980" s="2" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B980" s="2" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A981" s="2" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B981" s="2" t="s">
-        <v>1957</v>
       </c>
     </row>
     <row r="982" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A982" s="2" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A983" s="2" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="B983" s="2" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="984" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="986" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A987" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A988" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="B986" s="2" t="s">
+      <c r="B988" s="2" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="987" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A987" s="2" t="s">
+    <row r="989" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A989" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="B987" s="2" t="s">
+      <c r="B989" s="2" t="s">
         <v>1969</v>
       </c>
     </row>
-    <row r="988" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A988" s="2" t="s">
+    <row r="990" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A990" s="2" t="s">
         <v>1970</v>
       </c>
-      <c r="B988" s="2" t="s">
+      <c r="B990" s="2" t="s">
         <v>1971</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A989" s="2" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B989" s="2" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A990" s="2" t="s">
-        <v>1974</v>
-      </c>
-      <c r="B990" s="2" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="991" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="992" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A993" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A994" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="B992" s="2" t="s">
+      <c r="B994" s="2" t="s">
         <v>1979</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A993" s="2" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B993" s="2" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="994" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A994" s="2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B994" s="2" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="995" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A995" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A996" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A997" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="B995" s="2" t="s">
+      <c r="B997" s="2" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="996" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A996" s="2" t="s">
+    <row r="998" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A998" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="B996" s="2" t="s">
+      <c r="B998" s="2" t="s">
         <v>1987</v>
-      </c>
-    </row>
-    <row r="997" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A997" s="2" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B997" s="2" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="998" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A998" s="2" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B998" s="2" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="999" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A999" s="2" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="2" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1001" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1001" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2" t="s">
         <v>1996</v>
       </c>
-      <c r="B1001" s="2" t="s">
+      <c r="B1003" s="2" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1002" s="2" t="s">
+    <row r="1004" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="B1002" s="2" t="s">
+      <c r="B1004" s="2" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1003" s="2" t="s">
+    <row r="1005" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="B1003" s="2" t="s">
+      <c r="B1005" s="2" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1004" s="2" t="s">
+    <row r="1006" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1006" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="B1004" s="2" t="s">
+      <c r="B1006" s="2" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="1005" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A1005" s="2" t="s">
+    <row r="1007" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="B1005" s="2" t="s">
+      <c r="B1007" s="2" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1006" s="2" t="s">
+    <row r="1008" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="B1006" s="2" t="s">
+      <c r="B1008" s="2" t="s">
         <v>2007</v>
       </c>
     </row>
-    <row r="1007" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1007" s="2" t="s">
+    <row r="1009" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="B1007" s="2" t="s">
+      <c r="B1009" s="2" t="s">
         <v>2009</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1008" s="2" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B1008" s="2" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A1009" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="B1009" s="2" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="1010" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1010" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2" t="s">
         <v>2014</v>
       </c>
-      <c r="B1010" s="2" t="s">
+      <c r="B1012" s="2" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="1011" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1011" s="2" t="s">
+    <row r="1013" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="B1011" s="2" t="s">
+      <c r="B1013" s="2" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="1012" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1012" s="2" t="s">
+    <row r="1014" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="B1012" s="2" t="s">
+      <c r="B1014" s="2" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="1013" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1013" s="2" t="s">
+    <row r="1015" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2" t="s">
         <v>2020</v>
       </c>
-      <c r="B1013" s="2" t="s">
+      <c r="B1015" s="2" t="s">
         <v>2021</v>
       </c>
     </row>
-    <row r="1014" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1014" s="2" t="s">
+    <row r="1016" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1016" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="B1014" s="2" t="s">
+      <c r="B1016" s="2" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="1015" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1015" s="2" t="s">
+    <row r="1017" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1017" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="B1015" s="2" t="s">
+      <c r="B1017" s="2" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="1016" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A1016" s="2" t="s">
+    <row r="1018" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1018" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="B1016" s="2" t="s">
+      <c r="B1018" s="2" t="s">
         <v>2027</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1017" s="2" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B1017" s="2" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1018" s="2" t="s">
-        <v>2030</v>
-      </c>
-      <c r="B1018" s="2" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="1019" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1019" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1020" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1021" s="2" t="s">
         <v>2032</v>
       </c>
-      <c r="B1019" s="2" t="s">
+      <c r="B1021" s="2" t="s">
         <v>2033</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1020" s="2" t="s">
-        <v>2034</v>
-      </c>
-      <c r="B1020" s="2" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1021" s="2" t="s">
-        <v>2036</v>
-      </c>
-      <c r="B1021" s="2" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="1022" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1023" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1024" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="B1022" s="2" t="s">
+      <c r="B1024" s="2" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1023" s="2" t="s">
+    <row r="1025" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1025" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="B1023" s="2" t="s">
+      <c r="B1025" s="2" t="s">
         <v>2041</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1024" s="2" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B1024" s="2" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1025" s="2" t="s">
-        <v>2044</v>
-      </c>
-      <c r="B1025" s="2" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="1026" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="2" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="B1026" s="2" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1027" s="2" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="B1027" s="2" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1028" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1028" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1029" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A1030" s="2" t="s">
         <v>2050</v>
       </c>
-      <c r="B1028" s="2" t="s">
+      <c r="B1030" s="2" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="1029" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1029" s="2" t="s">
+    <row r="1031" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="B1029" s="2" t="s">
+      <c r="B1031" s="2" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="1030" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1030" s="2" t="s">
+    <row r="1032" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1032" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="B1030" s="2" t="s">
+      <c r="B1032" s="2" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1031" s="2" t="s">
+    <row r="1033" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1033" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="B1031" s="2" t="s">
+      <c r="B1033" s="2" t="s">
         <v>2057</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A1032" s="2" t="s">
+    <row r="1034" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1034" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="B1032" s="2" t="s">
+      <c r="B1034" s="2" t="s">
         <v>2059</v>
       </c>
     </row>
-    <row r="1033" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1033" s="2" t="s">
+    <row r="1035" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1035" s="2" t="s">
         <v>2060</v>
       </c>
-      <c r="B1033" s="2" t="s">
+      <c r="B1035" s="2" t="s">
         <v>2061</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1034" s="2" t="s">
+    <row r="1036" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1036" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="B1034" s="2" t="s">
+      <c r="B1036" s="2" t="s">
         <v>2063</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1035" s="2" t="s">
+    <row r="1037" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1037" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="B1035" s="2" t="s">
+      <c r="B1037" s="2" t="s">
         <v>2065</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1036" s="2" t="s">
+    <row r="1038" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1038" s="2" t="s">
         <v>2066</v>
       </c>
-      <c r="B1036" s="2" t="s">
+      <c r="B1038" s="2" t="s">
         <v>2067</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1037" s="2" t="s">
-        <v>2068</v>
-      </c>
-      <c r="B1037" s="2" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1038" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B1038" s="2" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="1039" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1039" s="2" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="B1039" s="2" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1040" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="B1040" s="2" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1041" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1041" s="2" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1041" s="2" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1042" s="2" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1043" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1043" s="2" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1044" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1044" s="2" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="B1044" s="2" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1045" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1045" s="2" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="B1045" s="2" t="s">
-        <v>2085</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1046" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1047" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1048" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1048" s="2" t="s">
         <v>2086</v>
       </c>
-      <c r="B1046" s="2" t="s">
+    </row>
+    <row r="1049" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1049" s="2" t="s">
         <v>2087</v>
       </c>
-    </row>
-    <row r="1047" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1047" s="2" t="s">
+      <c r="B1049" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="B1047" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1048" s="2" t="s">
+    </row>
+    <row r="1050" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1050" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="B1048" s="2" t="s">
+      <c r="B1050" s="2" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="1049" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1049" s="2" t="s">
+    <row r="1051" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1051" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="B1049" s="2" t="s">
+      <c r="B1051" s="2" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="1050" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1050" s="2" t="s">
+    <row r="1052" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1052" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="B1050" s="2" t="s">
+      <c r="B1052" s="2" t="s">
         <v>2094</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1051" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="B1051" s="2" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1052" s="2" t="s">
-        <v>2097</v>
-      </c>
-      <c r="B1052" s="2" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="1053" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1053" s="2" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="B1053" s="2" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1054" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1054" s="2" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="B1054" s="2" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1055" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1055" s="2" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="B1055" s="2" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1056" s="2" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="B1056" s="2" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1057" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1057" s="2" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="B1057" s="2" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1058" s="2" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="B1058" s="2" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1059" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1059" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1060" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A1061" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="B1059" s="2" t="s">
+      <c r="B1061" s="2" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="1060" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1060" s="2" t="s">
+    <row r="1062" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1062" s="2" t="s">
         <v>2113</v>
       </c>
-      <c r="B1060" s="2" t="s">
+      <c r="B1062" s="2" t="s">
         <v>2114</v>
       </c>
     </row>
-    <row r="1061" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1061" s="2" t="s">
+    <row r="1063" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1063" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="B1061" s="2" t="s">
+      <c r="B1063" s="2" t="s">
         <v>2116</v>
       </c>
     </row>
-    <row r="1062" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1062" s="2" t="s">
+    <row r="1064" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1064" s="2" t="s">
         <v>2117</v>
       </c>
-      <c r="B1062" s="2" t="s">
+      <c r="B1064" s="2" t="s">
         <v>2118</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A1063" s="2" t="s">
-        <v>2119</v>
-      </c>
-      <c r="B1063" s="2" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1064" s="2" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B1064" s="2" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="1065" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1065" s="2" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="B1065" s="2" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1066" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1066" s="2" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="B1066" s="2" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1067" s="2" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="B1067" s="2" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1068" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1068" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1069" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1069" s="2" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1070" s="2" t="s">
         <v>2129</v>
       </c>
-      <c r="B1068" s="2" t="s">
+      <c r="B1070" s="2" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="1069" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1069" s="2" t="s">
+    <row r="1071" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1071" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="B1069" s="2" t="s">
+      <c r="B1071" s="2" t="s">
         <v>2132</v>
       </c>
     </row>
-    <row r="1070" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1070" s="2" t="s">
+    <row r="1072" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1072" s="2" t="s">
         <v>2133</v>
       </c>
-      <c r="B1070" s="2" t="s">
+      <c r="B1072" s="2" t="s">
         <v>2134</v>
       </c>
     </row>
-    <row r="1071" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1071" s="2" t="s">
+    <row r="1073" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A1073" s="2" t="s">
         <v>2135</v>
       </c>
-      <c r="B1071" s="2" t="s">
+      <c r="B1073" s="2" t="s">
         <v>2136</v>
       </c>
     </row>
-    <row r="1072" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1072" s="2" t="s">
+    <row r="1074" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1074" s="2" t="s">
         <v>2137</v>
       </c>
-      <c r="B1072" s="2" t="s">
+      <c r="B1074" s="2" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="1073" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1073" s="2" t="s">
+    <row r="1075" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1075" s="2" t="s">
         <v>2139</v>
       </c>
-      <c r="B1073" s="2" t="s">
+      <c r="B1075" s="2" t="s">
         <v>2140</v>
       </c>
     </row>
-    <row r="1074" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1074" s="2" t="s">
+    <row r="1076" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1076" s="2" t="s">
         <v>2141</v>
       </c>
-      <c r="B1074" s="2" t="s">
+      <c r="B1076" s="2" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="1075" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A1075" s="2" t="s">
+    <row r="1077" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1077" s="2" t="s">
         <v>2143</v>
       </c>
-      <c r="B1075" s="2" t="s">
+      <c r="B1077" s="2" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="1076" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1076" s="2" t="s">
+    <row r="1078" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1078" s="2" t="s">
         <v>2145</v>
       </c>
-      <c r="B1076" s="2" t="s">
+      <c r="B1078" s="2" t="s">
         <v>2146</v>
       </c>
     </row>
-    <row r="1077" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1077" s="2" t="s">
+    <row r="1079" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1079" s="2" t="s">
         <v>2147</v>
       </c>
-      <c r="B1077" s="2" t="s">
+      <c r="B1079" s="2" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="1078" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1078" s="2" t="s">
+    <row r="1080" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1080" s="2" t="s">
         <v>2149</v>
       </c>
-      <c r="B1078" s="2" t="s">
+      <c r="B1080" s="2" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="1079" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1079" s="2" t="s">
+    <row r="1081" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1081" s="2" t="s">
         <v>2151</v>
       </c>
-      <c r="B1079" s="2" t="s">
+      <c r="B1081" s="2" t="s">
         <v>2152</v>
       </c>
     </row>
-    <row r="1080" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1080" s="2" t="s">
+    <row r="1082" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1082" s="2" t="s">
         <v>2153</v>
       </c>
-      <c r="B1080" s="2" t="s">
+      <c r="B1082" s="2" t="s">
         <v>2154</v>
       </c>
     </row>
-    <row r="1081" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1081" s="2" t="s">
+    <row r="1083" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1083" s="2" t="s">
         <v>2155</v>
       </c>
-      <c r="B1081" s="2" t="s">
+      <c r="B1083" s="2" t="s">
         <v>2156</v>
       </c>
     </row>
-    <row r="1082" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1082" s="2" t="s">
+    <row r="1084" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1084" s="2" t="s">
         <v>2157</v>
       </c>
-      <c r="B1082" s="2" t="s">
+      <c r="B1084" s="2" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="1083" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1083" s="2" t="s">
+    <row r="1085" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1085" s="2" t="s">
         <v>2159</v>
       </c>
-      <c r="B1083" s="2" t="s">
+      <c r="B1085" s="2" t="s">
         <v>2160</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1084" s="2" t="s">
-        <v>2161</v>
-      </c>
-      <c r="B1084" s="2" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1085" s="2" t="s">
-        <v>2163</v>
-      </c>
-      <c r="B1085" s="2" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="1086" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1086" s="2" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="B1086" s="2" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1087" s="2" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="B1087" s="2" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1088" s="2" t="s">
-        <v>2169</v>
-      </c>
-      <c r="B1088" s="2" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1089" s="2" t="s">
-        <v>2171</v>
-      </c>
-      <c r="B1089" s="2" t="s">
-        <v>2172</v>
+        <v>2164</v>
       </c>
     </row>
   </sheetData>

--- a/flashcards/Memcode - Latein - Fachvokabular Jus (JKU, Austria).xlsx
+++ b/flashcards/Memcode - Latein - Fachvokabular Jus (JKU, Austria).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C64D4A4-60D9-4398-B6E5-E3D9D76D5359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00706C-313A-43E6-BD83-AB9069B35016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="390" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latein - Fachvokabular Rechtswi" sheetId="1" r:id="rId1"/>
@@ -4298,9 +4298,6 @@
     <t>aus einer verwerflichen Sache entsteht keine Klage</t>
   </si>
   <si>
-    <t>ex tune</t>
-  </si>
-  <si>
     <t>vom damaligen Zeitpunkt an</t>
   </si>
   <si>
@@ -6529,6 +6526,9 @@
   </si>
   <si>
     <t>omnis definitio in iure civile periculosa est</t>
+  </si>
+  <si>
+    <t>ex tunc</t>
   </si>
 </sst>
 </file>
@@ -6922,8 +6922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
+      <selection activeCell="A721" sqref="A721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -9005,7 +9005,7 @@
     </row>
     <row r="260" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>516</v>
@@ -9016,7 +9016,7 @@
         <v>517</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="262" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9981,10 +9981,10 @@
     </row>
     <row r="382" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>2163</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="383" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -10005,10 +10005,10 @@
     </row>
     <row r="385" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>2161</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="386" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10136,7 +10136,7 @@
         <v>791</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="402" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12685,2599 +12685,2599 @@
     </row>
     <row r="720" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B720" s="2" t="s">
         <v>1427</v>
-      </c>
-      <c r="B720" s="2" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="721" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B721" s="2" t="s">
         <v>1429</v>
-      </c>
-      <c r="B721" s="2" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="722" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B722" s="2" t="s">
         <v>1431</v>
-      </c>
-      <c r="B722" s="2" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="723" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B723" s="2" t="s">
         <v>1433</v>
-      </c>
-      <c r="B723" s="2" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="724" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B724" s="2" t="s">
         <v>1435</v>
-      </c>
-      <c r="B724" s="2" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="725" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B725" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="B725" s="2" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="726" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B726" s="2" t="s">
         <v>1439</v>
-      </c>
-      <c r="B726" s="2" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="727" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B727" s="2" t="s">
         <v>1441</v>
-      </c>
-      <c r="B727" s="2" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="728" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B728" s="2" t="s">
         <v>1443</v>
-      </c>
-      <c r="B728" s="2" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="729" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B729" s="2" t="s">
         <v>1445</v>
-      </c>
-      <c r="B729" s="2" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="730" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B730" s="2" t="s">
         <v>1447</v>
-      </c>
-      <c r="B730" s="2" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="731" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B731" s="2" t="s">
         <v>1449</v>
-      </c>
-      <c r="B731" s="2" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="732" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B732" s="2" t="s">
         <v>1451</v>
-      </c>
-      <c r="B732" s="2" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="733" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B733" s="2" t="s">
         <v>1453</v>
-      </c>
-      <c r="B733" s="2" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="734" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B734" s="2" t="s">
         <v>1455</v>
-      </c>
-      <c r="B734" s="2" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="735" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B735" s="2" t="s">
         <v>1457</v>
-      </c>
-      <c r="B735" s="2" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="736" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B736" s="2" t="s">
         <v>1459</v>
-      </c>
-      <c r="B736" s="2" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="737" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B737" s="2" t="s">
         <v>1461</v>
-      </c>
-      <c r="B737" s="2" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="738" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B738" s="2" t="s">
         <v>1463</v>
-      </c>
-      <c r="B738" s="2" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="739" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B739" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="B739" s="2" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="740" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B740" s="2" t="s">
         <v>1467</v>
-      </c>
-      <c r="B740" s="2" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="741" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B741" s="2" t="s">
         <v>1469</v>
-      </c>
-      <c r="B741" s="2" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="742" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B742" s="2" t="s">
         <v>1471</v>
-      </c>
-      <c r="B742" s="2" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="743" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B743" s="2" t="s">
         <v>1473</v>
-      </c>
-      <c r="B743" s="2" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="744" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B744" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="B744" s="2" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="745" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B745" s="2" t="s">
         <v>1477</v>
-      </c>
-      <c r="B745" s="2" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="746" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B746" s="2" t="s">
         <v>1479</v>
-      </c>
-      <c r="B746" s="2" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="747" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B747" s="2" t="s">
         <v>1481</v>
-      </c>
-      <c r="B747" s="2" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="748" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B748" s="2" t="s">
         <v>1483</v>
-      </c>
-      <c r="B748" s="2" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="749" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B749" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B749" s="2" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="750" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B750" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="B750" s="2" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="751" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B751" s="2" t="s">
         <v>1489</v>
-      </c>
-      <c r="B751" s="2" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="752" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B752" s="2" t="s">
         <v>1491</v>
-      </c>
-      <c r="B752" s="2" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="753" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B753" s="2" t="s">
         <v>1493</v>
-      </c>
-      <c r="B753" s="2" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="754" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B754" s="2" t="s">
         <v>1495</v>
-      </c>
-      <c r="B754" s="2" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="755" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B755" s="2" t="s">
         <v>1497</v>
-      </c>
-      <c r="B755" s="2" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="756" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B756" s="2" t="s">
         <v>1499</v>
-      </c>
-      <c r="B756" s="2" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="757" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B757" s="2" t="s">
         <v>1501</v>
-      </c>
-      <c r="B757" s="2" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="758" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B758" s="2" t="s">
         <v>1503</v>
-      </c>
-      <c r="B758" s="2" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="759" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B759" s="2" t="s">
         <v>1505</v>
-      </c>
-      <c r="B759" s="2" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="760" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B760" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="B760" s="2" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="761" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B761" s="2" t="s">
         <v>1509</v>
-      </c>
-      <c r="B761" s="2" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B762" s="2" t="s">
         <v>1511</v>
-      </c>
-      <c r="B762" s="2" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="763" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B763" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="B763" s="2" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="764" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B764" s="2" t="s">
         <v>1515</v>
-      </c>
-      <c r="B764" s="2" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="765" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B765" s="2" t="s">
         <v>1517</v>
-      </c>
-      <c r="B765" s="2" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="766" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B766" s="2" t="s">
         <v>1519</v>
-      </c>
-      <c r="B766" s="2" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="767" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B767" s="2" t="s">
         <v>1521</v>
-      </c>
-      <c r="B767" s="2" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="768" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B768" s="2" t="s">
         <v>1523</v>
-      </c>
-      <c r="B768" s="2" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="769" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B769" s="2" t="s">
         <v>1525</v>
-      </c>
-      <c r="B769" s="2" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="770" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B770" s="2" t="s">
         <v>1527</v>
-      </c>
-      <c r="B770" s="2" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="771" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B771" s="2" t="s">
         <v>1529</v>
-      </c>
-      <c r="B771" s="2" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="772" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B772" s="2" t="s">
         <v>1531</v>
-      </c>
-      <c r="B772" s="2" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="773" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B773" s="2" t="s">
         <v>1533</v>
-      </c>
-      <c r="B773" s="2" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="774" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B774" s="2" t="s">
         <v>1535</v>
-      </c>
-      <c r="B774" s="2" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="775" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B775" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="776" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B776" s="2" t="s">
         <v>1539</v>
-      </c>
-      <c r="B776" s="2" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="777" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B777" s="2" t="s">
         <v>1541</v>
-      </c>
-      <c r="B777" s="2" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="778" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B778" s="2" t="s">
         <v>1543</v>
-      </c>
-      <c r="B778" s="2" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="779" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B779" s="2" t="s">
         <v>1545</v>
-      </c>
-      <c r="B779" s="2" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="780" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B780" s="2" t="s">
         <v>1547</v>
-      </c>
-      <c r="B780" s="2" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="781" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B781" s="2" t="s">
         <v>1549</v>
-      </c>
-      <c r="B781" s="2" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="782" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B782" s="2" t="s">
         <v>1551</v>
-      </c>
-      <c r="B782" s="2" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="783" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B783" s="2" t="s">
         <v>1553</v>
-      </c>
-      <c r="B783" s="2" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="784" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B784" s="2" t="s">
         <v>1555</v>
-      </c>
-      <c r="B784" s="2" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="785" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B785" s="2" t="s">
         <v>1557</v>
-      </c>
-      <c r="B785" s="2" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="786" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B786" s="2" t="s">
         <v>1559</v>
-      </c>
-      <c r="B786" s="2" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="787" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B787" s="2" t="s">
         <v>1561</v>
-      </c>
-      <c r="B787" s="2" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="788" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B788" s="2" t="s">
         <v>1563</v>
-      </c>
-      <c r="B788" s="2" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="789" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B789" s="2" t="s">
         <v>1565</v>
-      </c>
-      <c r="B789" s="2" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="790" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B790" s="2" t="s">
         <v>1567</v>
-      </c>
-      <c r="B790" s="2" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="791" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B791" s="2" t="s">
         <v>1569</v>
-      </c>
-      <c r="B791" s="2" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="792" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B792" s="2" t="s">
         <v>1571</v>
-      </c>
-      <c r="B792" s="2" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="793" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B793" s="2" t="s">
         <v>1573</v>
-      </c>
-      <c r="B793" s="2" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="794" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B794" s="2" t="s">
         <v>1575</v>
-      </c>
-      <c r="B794" s="2" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="795" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B795" s="2" t="s">
         <v>1577</v>
-      </c>
-      <c r="B795" s="2" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="796" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B796" s="2" t="s">
         <v>1579</v>
-      </c>
-      <c r="B796" s="2" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="797" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B797" s="2" t="s">
         <v>1581</v>
-      </c>
-      <c r="B797" s="2" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="798" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B798" s="2" t="s">
         <v>1583</v>
-      </c>
-      <c r="B798" s="2" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="799" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B799" s="2" t="s">
         <v>1585</v>
-      </c>
-      <c r="B799" s="2" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="800" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B800" s="2" t="s">
         <v>1587</v>
-      </c>
-      <c r="B800" s="2" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="801" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B801" s="2" t="s">
         <v>1589</v>
-      </c>
-      <c r="B801" s="2" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="802" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B802" s="2" t="s">
         <v>1591</v>
-      </c>
-      <c r="B802" s="2" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="803" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B803" s="2" t="s">
         <v>1593</v>
-      </c>
-      <c r="B803" s="2" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="804" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B804" s="2" t="s">
         <v>1595</v>
-      </c>
-      <c r="B804" s="2" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="805" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B805" s="2" t="s">
         <v>1597</v>
-      </c>
-      <c r="B805" s="2" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="806" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B806" s="2" t="s">
         <v>1599</v>
-      </c>
-      <c r="B806" s="2" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="807" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B807" s="2" t="s">
         <v>1601</v>
-      </c>
-      <c r="B807" s="2" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="808" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B808" s="2" t="s">
         <v>1603</v>
-      </c>
-      <c r="B808" s="2" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="809" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B809" s="2" t="s">
         <v>1605</v>
-      </c>
-      <c r="B809" s="2" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="810" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B810" s="2" t="s">
         <v>1607</v>
-      </c>
-      <c r="B810" s="2" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="811" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B811" s="2" t="s">
         <v>1609</v>
-      </c>
-      <c r="B811" s="2" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="812" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B812" s="2" t="s">
         <v>1611</v>
-      </c>
-      <c r="B812" s="2" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="813" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B813" s="2" t="s">
         <v>1613</v>
-      </c>
-      <c r="B813" s="2" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="814" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B814" s="2" t="s">
         <v>1615</v>
-      </c>
-      <c r="B814" s="2" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="815" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B815" s="2" t="s">
         <v>1617</v>
-      </c>
-      <c r="B815" s="2" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="816" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B816" s="2" t="s">
         <v>1619</v>
-      </c>
-      <c r="B816" s="2" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="817" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B817" s="2" t="s">
         <v>1621</v>
-      </c>
-      <c r="B817" s="2" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="818" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B818" s="2" t="s">
         <v>1623</v>
-      </c>
-      <c r="B818" s="2" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="819" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B819" s="2" t="s">
         <v>1625</v>
-      </c>
-      <c r="B819" s="2" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="820" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B820" s="2" t="s">
         <v>1627</v>
-      </c>
-      <c r="B820" s="2" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="821" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B821" s="2" t="s">
         <v>1629</v>
-      </c>
-      <c r="B821" s="2" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="822" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B822" s="2" t="s">
         <v>1631</v>
-      </c>
-      <c r="B822" s="2" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="823" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B823" s="2" t="s">
         <v>1633</v>
-      </c>
-      <c r="B823" s="2" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="824" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B824" s="2" t="s">
         <v>1635</v>
-      </c>
-      <c r="B824" s="2" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="825" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B825" s="2" t="s">
         <v>1637</v>
-      </c>
-      <c r="B825" s="2" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="826" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B826" s="2" t="s">
         <v>1639</v>
-      </c>
-      <c r="B826" s="2" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="827" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B827" s="2" t="s">
         <v>1641</v>
-      </c>
-      <c r="B827" s="2" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="828" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B828" s="2" t="s">
         <v>1643</v>
-      </c>
-      <c r="B828" s="2" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="829" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B829" s="2" t="s">
         <v>1645</v>
-      </c>
-      <c r="B829" s="2" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="830" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B830" s="2" t="s">
         <v>1647</v>
-      </c>
-      <c r="B830" s="2" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="831" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B831" s="2" t="s">
         <v>1649</v>
-      </c>
-      <c r="B831" s="2" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="832" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B832" s="2" t="s">
         <v>1651</v>
-      </c>
-      <c r="B832" s="2" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="833" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B833" s="2" t="s">
         <v>1653</v>
-      </c>
-      <c r="B833" s="2" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="834" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B834" s="2" t="s">
         <v>1655</v>
-      </c>
-      <c r="B834" s="2" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="835" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B835" s="2" t="s">
         <v>1657</v>
-      </c>
-      <c r="B835" s="2" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="836" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B836" s="2" t="s">
         <v>1659</v>
-      </c>
-      <c r="B836" s="2" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="837" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B837" s="2" t="s">
         <v>1661</v>
-      </c>
-      <c r="B837" s="2" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="838" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B838" s="2" t="s">
         <v>1663</v>
-      </c>
-      <c r="B838" s="2" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="839" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B839" s="2" t="s">
         <v>1665</v>
-      </c>
-      <c r="B839" s="2" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="840" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B840" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="B840" s="2" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="841" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B841" s="2" t="s">
         <v>1669</v>
-      </c>
-      <c r="B841" s="2" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="842" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B842" s="2" t="s">
         <v>1671</v>
-      </c>
-      <c r="B842" s="2" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="843" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B843" s="2" t="s">
         <v>1673</v>
-      </c>
-      <c r="B843" s="2" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="844" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B844" s="2" t="s">
         <v>1675</v>
-      </c>
-      <c r="B844" s="2" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="845" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B845" s="2" t="s">
         <v>1677</v>
-      </c>
-      <c r="B845" s="2" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="846" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B846" s="2" t="s">
         <v>1679</v>
-      </c>
-      <c r="B846" s="2" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="847" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B847" s="2" t="s">
         <v>1681</v>
-      </c>
-      <c r="B847" s="2" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="848" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B848" s="2" t="s">
         <v>1683</v>
-      </c>
-      <c r="B848" s="2" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="849" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B849" s="2" t="s">
         <v>1685</v>
-      </c>
-      <c r="B849" s="2" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="850" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B850" s="2" t="s">
         <v>1687</v>
-      </c>
-      <c r="B850" s="2" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="851" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B851" s="2" t="s">
         <v>1689</v>
-      </c>
-      <c r="B851" s="2" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="852" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B852" s="2" t="s">
         <v>1691</v>
-      </c>
-      <c r="B852" s="2" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="853" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B853" s="2" t="s">
         <v>1693</v>
-      </c>
-      <c r="B853" s="2" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="854" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B854" s="2" t="s">
         <v>1695</v>
-      </c>
-      <c r="B854" s="2" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="855" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B855" s="2" t="s">
         <v>1697</v>
-      </c>
-      <c r="B855" s="2" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="856" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B856" s="2" t="s">
         <v>1699</v>
-      </c>
-      <c r="B856" s="2" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="857" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B857" s="2" t="s">
         <v>1701</v>
-      </c>
-      <c r="B857" s="2" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="858" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B858" s="2" t="s">
         <v>1703</v>
-      </c>
-      <c r="B858" s="2" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="859" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B859" s="2" t="s">
         <v>1705</v>
-      </c>
-      <c r="B859" s="2" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="860" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B860" s="2" t="s">
         <v>1707</v>
-      </c>
-      <c r="B860" s="2" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="861" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B861" s="2" t="s">
         <v>1709</v>
-      </c>
-      <c r="B861" s="2" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="862" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B862" s="2" t="s">
         <v>1711</v>
-      </c>
-      <c r="B862" s="2" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="863" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B863" s="2" t="s">
         <v>1713</v>
-      </c>
-      <c r="B863" s="2" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="864" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B864" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="B864" s="2" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="865" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B865" s="2" t="s">
         <v>1717</v>
-      </c>
-      <c r="B865" s="2" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="866" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B866" s="2" t="s">
         <v>1719</v>
-      </c>
-      <c r="B866" s="2" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="867" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B867" s="2" t="s">
         <v>1721</v>
-      </c>
-      <c r="B867" s="2" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="868" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B868" s="2" t="s">
         <v>1723</v>
-      </c>
-      <c r="B868" s="2" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="869" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B869" s="2" t="s">
         <v>1725</v>
-      </c>
-      <c r="B869" s="2" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="870" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B870" s="2" t="s">
         <v>1727</v>
-      </c>
-      <c r="B870" s="2" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="871" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B871" s="2" t="s">
         <v>1729</v>
-      </c>
-      <c r="B871" s="2" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="872" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B872" s="2" t="s">
         <v>1731</v>
-      </c>
-      <c r="B872" s="2" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="873" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B873" s="2" t="s">
         <v>1733</v>
-      </c>
-      <c r="B873" s="2" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="874" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B874" s="2" t="s">
         <v>1735</v>
-      </c>
-      <c r="B874" s="2" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="875" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B875" s="2" t="s">
         <v>1737</v>
-      </c>
-      <c r="B875" s="2" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="876" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B876" s="2" t="s">
         <v>1739</v>
-      </c>
-      <c r="B876" s="2" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="877" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B877" s="2" t="s">
         <v>1741</v>
-      </c>
-      <c r="B877" s="2" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="878" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B878" s="2" t="s">
         <v>1743</v>
-      </c>
-      <c r="B878" s="2" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="879" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B879" s="2" t="s">
         <v>1745</v>
-      </c>
-      <c r="B879" s="2" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="880" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B880" s="2" t="s">
         <v>1747</v>
-      </c>
-      <c r="B880" s="2" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="881" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B881" s="2" t="s">
         <v>1749</v>
-      </c>
-      <c r="B881" s="2" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="882" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B882" s="2" t="s">
         <v>1751</v>
-      </c>
-      <c r="B882" s="2" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="883" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B883" s="2" t="s">
         <v>1753</v>
-      </c>
-      <c r="B883" s="2" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="884" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B884" s="2" t="s">
         <v>1755</v>
-      </c>
-      <c r="B884" s="2" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="885" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B885" s="2" t="s">
         <v>1757</v>
-      </c>
-      <c r="B885" s="2" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="886" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B886" s="2" t="s">
         <v>1759</v>
-      </c>
-      <c r="B886" s="2" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="887" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B887" s="2" t="s">
         <v>1761</v>
-      </c>
-      <c r="B887" s="2" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="888" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B888" s="2" t="s">
         <v>1763</v>
-      </c>
-      <c r="B888" s="2" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="889" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B889" s="2" t="s">
         <v>1765</v>
-      </c>
-      <c r="B889" s="2" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="890" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B890" s="2" t="s">
         <v>1767</v>
-      </c>
-      <c r="B890" s="2" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="891" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B891" s="2" t="s">
         <v>1769</v>
-      </c>
-      <c r="B891" s="2" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="892" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B892" s="2" t="s">
         <v>1771</v>
-      </c>
-      <c r="B892" s="2" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="893" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B893" s="2" t="s">
         <v>1773</v>
-      </c>
-      <c r="B893" s="2" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="894" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B894" s="2" t="s">
         <v>1775</v>
-      </c>
-      <c r="B894" s="2" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="895" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B895" s="2" t="s">
         <v>1777</v>
-      </c>
-      <c r="B895" s="2" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="896" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B896" s="2" t="s">
         <v>1779</v>
-      </c>
-      <c r="B896" s="2" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="897" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B897" s="2" t="s">
         <v>1781</v>
-      </c>
-      <c r="B897" s="2" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="898" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B898" s="2" t="s">
         <v>1783</v>
-      </c>
-      <c r="B898" s="2" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="899" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B899" s="2" t="s">
         <v>1785</v>
-      </c>
-      <c r="B899" s="2" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="900" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B900" s="2" t="s">
         <v>1787</v>
-      </c>
-      <c r="B900" s="2" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="901" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B901" s="2" t="s">
         <v>1789</v>
-      </c>
-      <c r="B901" s="2" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="902" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B902" s="2" t="s">
         <v>1791</v>
-      </c>
-      <c r="B902" s="2" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="903" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B903" s="2" t="s">
         <v>1793</v>
-      </c>
-      <c r="B903" s="2" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="904" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B904" s="2" t="s">
         <v>1795</v>
-      </c>
-      <c r="B904" s="2" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="905" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B905" s="2" t="s">
         <v>1797</v>
-      </c>
-      <c r="B905" s="2" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="906" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B906" s="2" t="s">
         <v>1799</v>
-      </c>
-      <c r="B906" s="2" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="907" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B907" s="2" t="s">
         <v>1801</v>
-      </c>
-      <c r="B907" s="2" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="908" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B908" s="2" t="s">
         <v>1803</v>
-      </c>
-      <c r="B908" s="2" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="909" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B909" s="2" t="s">
         <v>1805</v>
-      </c>
-      <c r="B909" s="2" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="910" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B910" s="2" t="s">
         <v>1807</v>
-      </c>
-      <c r="B910" s="2" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="911" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B911" s="2" t="s">
         <v>1809</v>
-      </c>
-      <c r="B911" s="2" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="912" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B912" s="2" t="s">
         <v>1811</v>
-      </c>
-      <c r="B912" s="2" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="913" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B913" s="2" t="s">
         <v>1813</v>
-      </c>
-      <c r="B913" s="2" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="914" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B914" s="2" t="s">
         <v>1815</v>
-      </c>
-      <c r="B914" s="2" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="915" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B915" s="2" t="s">
         <v>1817</v>
-      </c>
-      <c r="B915" s="2" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="916" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B916" s="2" t="s">
         <v>1819</v>
-      </c>
-      <c r="B916" s="2" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="917" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B917" s="2" t="s">
         <v>1821</v>
-      </c>
-      <c r="B917" s="2" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="918" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B918" s="2" t="s">
         <v>1823</v>
-      </c>
-      <c r="B918" s="2" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="919" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B919" s="2" t="s">
         <v>1825</v>
-      </c>
-      <c r="B919" s="2" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="920" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B920" s="2" t="s">
         <v>1827</v>
-      </c>
-      <c r="B920" s="2" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="921" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B921" s="2" t="s">
         <v>1829</v>
-      </c>
-      <c r="B921" s="2" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="922" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B922" s="2" t="s">
         <v>1831</v>
-      </c>
-      <c r="B922" s="2" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="923" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B923" s="2" t="s">
         <v>1833</v>
-      </c>
-      <c r="B923" s="2" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="924" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B924" s="2" t="s">
         <v>1835</v>
-      </c>
-      <c r="B924" s="2" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="925" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B925" s="2" t="s">
         <v>1837</v>
-      </c>
-      <c r="B925" s="2" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="926" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B926" s="2" t="s">
         <v>1839</v>
-      </c>
-      <c r="B926" s="2" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="927" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B927" s="2" t="s">
         <v>1841</v>
-      </c>
-      <c r="B927" s="2" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="928" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B928" s="2" t="s">
         <v>1843</v>
-      </c>
-      <c r="B928" s="2" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="929" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B929" s="2" t="s">
         <v>1845</v>
-      </c>
-      <c r="B929" s="2" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="930" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B930" s="2" t="s">
         <v>1847</v>
-      </c>
-      <c r="B930" s="2" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="931" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B931" s="2" t="s">
         <v>1849</v>
-      </c>
-      <c r="B931" s="2" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="932" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B932" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="B932" s="2" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="933" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B933" s="2" t="s">
         <v>1853</v>
-      </c>
-      <c r="B933" s="2" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="934" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B934" s="2" t="s">
         <v>1855</v>
-      </c>
-      <c r="B934" s="2" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="935" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B935" s="2" t="s">
         <v>1857</v>
-      </c>
-      <c r="B935" s="2" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="936" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B936" s="2" t="s">
         <v>1859</v>
-      </c>
-      <c r="B936" s="2" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="937" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B937" s="2" t="s">
         <v>1861</v>
-      </c>
-      <c r="B937" s="2" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="938" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B938" s="2" t="s">
         <v>1863</v>
-      </c>
-      <c r="B938" s="2" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="939" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B939" s="2" t="s">
         <v>1865</v>
-      </c>
-      <c r="B939" s="2" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="940" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B940" s="2" t="s">
         <v>1867</v>
-      </c>
-      <c r="B940" s="2" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="941" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B941" s="2" t="s">
         <v>1869</v>
-      </c>
-      <c r="B941" s="2" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="942" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B942" s="2" t="s">
         <v>1871</v>
-      </c>
-      <c r="B942" s="2" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="943" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B943" s="2" t="s">
         <v>1873</v>
-      </c>
-      <c r="B943" s="2" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="944" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A944" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B944" s="2" t="s">
         <v>1875</v>
-      </c>
-      <c r="B944" s="2" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="945" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B945" s="2" t="s">
         <v>1877</v>
-      </c>
-      <c r="B945" s="2" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="946" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B946" s="2" t="s">
         <v>1879</v>
-      </c>
-      <c r="B946" s="2" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="947" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B947" s="2" t="s">
         <v>1881</v>
-      </c>
-      <c r="B947" s="2" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="948" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B948" s="2" t="s">
         <v>1883</v>
-      </c>
-      <c r="B948" s="2" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="949" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B949" s="2" t="s">
         <v>1885</v>
-      </c>
-      <c r="B949" s="2" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="950" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B950" s="2" t="s">
         <v>1887</v>
-      </c>
-      <c r="B950" s="2" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="951" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B951" s="2" t="s">
         <v>1889</v>
-      </c>
-      <c r="B951" s="2" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="952" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A952" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B952" s="2" t="s">
         <v>1891</v>
-      </c>
-      <c r="B952" s="2" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="953" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A953" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B953" s="2" t="s">
         <v>1893</v>
-      </c>
-      <c r="B953" s="2" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="954" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B954" s="2" t="s">
         <v>1895</v>
-      </c>
-      <c r="B954" s="2" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="955" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B955" s="2" t="s">
         <v>1897</v>
-      </c>
-      <c r="B955" s="2" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="956" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B956" s="2" t="s">
         <v>1899</v>
-      </c>
-      <c r="B956" s="2" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="957" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B957" s="2" t="s">
         <v>1901</v>
-      </c>
-      <c r="B957" s="2" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="958" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B958" s="2" t="s">
         <v>1903</v>
-      </c>
-      <c r="B958" s="2" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="959" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B959" s="2" t="s">
         <v>1905</v>
-      </c>
-      <c r="B959" s="2" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="960" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B960" s="2" t="s">
         <v>1907</v>
-      </c>
-      <c r="B960" s="2" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="961" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B961" s="2" t="s">
         <v>1909</v>
-      </c>
-      <c r="B961" s="2" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="962" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B962" s="2" t="s">
         <v>1911</v>
-      </c>
-      <c r="B962" s="2" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="963" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A963" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B963" s="2" t="s">
         <v>1913</v>
-      </c>
-      <c r="B963" s="2" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="964" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A964" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B964" s="2" t="s">
         <v>1915</v>
-      </c>
-      <c r="B964" s="2" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="965" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A965" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B965" s="2" t="s">
         <v>1917</v>
-      </c>
-      <c r="B965" s="2" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="966" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B966" s="2" t="s">
         <v>1919</v>
-      </c>
-      <c r="B966" s="2" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="967" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A967" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B967" s="2" t="s">
         <v>1921</v>
-      </c>
-      <c r="B967" s="2" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="968" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A968" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B968" s="2" t="s">
         <v>1923</v>
-      </c>
-      <c r="B968" s="2" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="969" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A969" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B969" s="2" t="s">
         <v>1925</v>
-      </c>
-      <c r="B969" s="2" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="970" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B970" s="2" t="s">
         <v>1927</v>
-      </c>
-      <c r="B970" s="2" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="971" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B971" s="2" t="s">
         <v>1929</v>
-      </c>
-      <c r="B971" s="2" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="972" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B972" s="2" t="s">
         <v>1931</v>
-      </c>
-      <c r="B972" s="2" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="973" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B973" s="2" t="s">
         <v>1933</v>
-      </c>
-      <c r="B973" s="2" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="974" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B974" s="2" t="s">
         <v>1935</v>
-      </c>
-      <c r="B974" s="2" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="975" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B975" s="2" t="s">
         <v>1937</v>
-      </c>
-      <c r="B975" s="2" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="976" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B976" s="2" t="s">
         <v>1939</v>
-      </c>
-      <c r="B976" s="2" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="977" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A977" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B977" s="2" t="s">
         <v>1941</v>
-      </c>
-      <c r="B977" s="2" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="978" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B978" s="2" t="s">
         <v>1943</v>
-      </c>
-      <c r="B978" s="2" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="979" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A979" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B979" s="2" t="s">
         <v>1945</v>
-      </c>
-      <c r="B979" s="2" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="980" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A980" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B980" s="2" t="s">
         <v>1947</v>
-      </c>
-      <c r="B980" s="2" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="981" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A981" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B981" s="2" t="s">
         <v>1949</v>
-      </c>
-      <c r="B981" s="2" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="982" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A982" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B982" s="2" t="s">
         <v>1951</v>
-      </c>
-      <c r="B982" s="2" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="983" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A983" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B983" s="2" t="s">
         <v>1953</v>
-      </c>
-      <c r="B983" s="2" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="984" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B984" s="2" t="s">
         <v>1955</v>
-      </c>
-      <c r="B984" s="2" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="985" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B985" s="2" t="s">
         <v>1957</v>
-      </c>
-      <c r="B985" s="2" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="986" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B986" s="2" t="s">
         <v>1959</v>
-      </c>
-      <c r="B986" s="2" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="987" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A987" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B987" s="2" t="s">
         <v>1961</v>
-      </c>
-      <c r="B987" s="2" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="988" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B988" s="2" t="s">
         <v>1963</v>
-      </c>
-      <c r="B988" s="2" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="989" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A989" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B989" s="2" t="s">
         <v>1965</v>
-      </c>
-      <c r="B989" s="2" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="990" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A990" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B990" s="2" t="s">
         <v>1967</v>
-      </c>
-      <c r="B990" s="2" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="991" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B991" s="2" t="s">
         <v>1969</v>
-      </c>
-      <c r="B991" s="2" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="992" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B992" s="2" t="s">
         <v>1971</v>
-      </c>
-      <c r="B992" s="2" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="993" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A993" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B993" s="2" t="s">
         <v>1973</v>
-      </c>
-      <c r="B993" s="2" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="994" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A994" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B994" s="2" t="s">
         <v>1975</v>
-      </c>
-      <c r="B994" s="2" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="995" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A995" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B995" s="2" t="s">
         <v>1977</v>
-      </c>
-      <c r="B995" s="2" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="996" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A996" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B996" s="2" t="s">
         <v>1979</v>
-      </c>
-      <c r="B996" s="2" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="997" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A997" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B997" s="2" t="s">
         <v>1981</v>
-      </c>
-      <c r="B997" s="2" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="998" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A998" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B998" s="2" t="s">
         <v>1983</v>
-      </c>
-      <c r="B998" s="2" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="999" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A999" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B999" s="2" t="s">
         <v>1985</v>
-      </c>
-      <c r="B999" s="2" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="1000" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1000" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1000" s="2" t="s">
         <v>1987</v>
-      </c>
-      <c r="B1000" s="2" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="1001" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1001" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1001" s="2" t="s">
         <v>1989</v>
-      </c>
-      <c r="B1001" s="2" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="1002" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1002" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1002" s="2" t="s">
         <v>1991</v>
-      </c>
-      <c r="B1002" s="2" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="1003" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1003" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1003" s="2" t="s">
         <v>1993</v>
-      </c>
-      <c r="B1003" s="2" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="1004" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1004" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1004" s="2" t="s">
         <v>1995</v>
-      </c>
-      <c r="B1004" s="2" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="1005" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1005" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1005" s="2" t="s">
         <v>1997</v>
-      </c>
-      <c r="B1005" s="2" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="1006" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1006" s="2" t="s">
         <v>1999</v>
-      </c>
-      <c r="B1006" s="2" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="1007" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1007" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1007" s="2" t="s">
         <v>2001</v>
-      </c>
-      <c r="B1007" s="2" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="1008" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1008" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1008" s="2" t="s">
         <v>2003</v>
-      </c>
-      <c r="B1008" s="2" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="1009" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1009" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1009" s="2" t="s">
         <v>2005</v>
-      </c>
-      <c r="B1009" s="2" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="1010" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1010" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1010" s="2" t="s">
         <v>2007</v>
-      </c>
-      <c r="B1010" s="2" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="1011" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1011" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1011" s="2" t="s">
         <v>2009</v>
-      </c>
-      <c r="B1011" s="2" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="1012" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1012" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1012" s="2" t="s">
         <v>2011</v>
-      </c>
-      <c r="B1012" s="2" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="1013" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1013" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1013" s="2" t="s">
         <v>2013</v>
-      </c>
-      <c r="B1013" s="2" t="s">
-        <v>2014</v>
       </c>
     </row>
     <row r="1014" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1014" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1014" s="2" t="s">
         <v>2015</v>
-      </c>
-      <c r="B1014" s="2" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="1015" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1015" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1015" s="2" t="s">
         <v>2017</v>
-      </c>
-      <c r="B1015" s="2" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="1016" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1016" s="2" t="s">
         <v>2019</v>
-      </c>
-      <c r="B1016" s="2" t="s">
-        <v>2020</v>
       </c>
     </row>
     <row r="1017" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1017" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1017" s="2" t="s">
         <v>2021</v>
-      </c>
-      <c r="B1017" s="2" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="1018" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1018" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1018" s="2" t="s">
         <v>2023</v>
-      </c>
-      <c r="B1018" s="2" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="1019" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1019" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1019" s="2" t="s">
         <v>2025</v>
-      </c>
-      <c r="B1019" s="2" t="s">
-        <v>2026</v>
       </c>
     </row>
     <row r="1020" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1020" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1020" s="2" t="s">
         <v>2027</v>
-      </c>
-      <c r="B1020" s="2" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="1021" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1021" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1021" s="2" t="s">
         <v>2029</v>
-      </c>
-      <c r="B1021" s="2" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="1022" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1022" s="2" t="s">
         <v>2031</v>
-      </c>
-      <c r="B1022" s="2" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="1023" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1023" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1023" s="2" t="s">
         <v>2033</v>
-      </c>
-      <c r="B1023" s="2" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="1024" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1024" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1024" s="2" t="s">
         <v>2035</v>
-      </c>
-      <c r="B1024" s="2" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="1025" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1025" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1025" s="2" t="s">
         <v>2037</v>
-      </c>
-      <c r="B1025" s="2" t="s">
-        <v>2038</v>
       </c>
     </row>
     <row r="1026" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1026" s="2" t="s">
         <v>2039</v>
-      </c>
-      <c r="B1026" s="2" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="1027" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1027" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1027" s="2" t="s">
         <v>2041</v>
-      </c>
-      <c r="B1027" s="2" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="1028" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1028" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1028" s="2" t="s">
         <v>2043</v>
-      </c>
-      <c r="B1028" s="2" t="s">
-        <v>2044</v>
       </c>
     </row>
     <row r="1029" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1029" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1029" s="2" t="s">
         <v>2045</v>
-      </c>
-      <c r="B1029" s="2" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="1030" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1030" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1030" s="2" t="s">
         <v>2047</v>
-      </c>
-      <c r="B1030" s="2" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="1031" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1031" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1031" s="2" t="s">
         <v>2049</v>
-      </c>
-      <c r="B1031" s="2" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="1032" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1032" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1032" s="2" t="s">
         <v>2051</v>
-      </c>
-      <c r="B1032" s="2" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="1033" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1033" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1033" s="2" t="s">
         <v>2053</v>
-      </c>
-      <c r="B1033" s="2" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="1034" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1034" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1034" s="2" t="s">
         <v>2055</v>
-      </c>
-      <c r="B1034" s="2" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="1035" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1035" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1035" s="2" t="s">
         <v>2057</v>
-      </c>
-      <c r="B1035" s="2" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="1036" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1036" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1036" s="2" t="s">
         <v>2059</v>
-      </c>
-      <c r="B1036" s="2" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="1037" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1037" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1037" s="2" t="s">
         <v>2061</v>
-      </c>
-      <c r="B1037" s="2" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="1038" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1038" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1038" s="2" t="s">
         <v>2063</v>
-      </c>
-      <c r="B1038" s="2" t="s">
-        <v>2064</v>
       </c>
     </row>
     <row r="1039" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1039" s="2" t="s">
         <v>2065</v>
-      </c>
-      <c r="B1039" s="2" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="1040" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1040" s="2" t="s">
         <v>2067</v>
-      </c>
-      <c r="B1040" s="2" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="1041" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1041" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1041" s="2" t="s">
         <v>2069</v>
-      </c>
-      <c r="B1041" s="2" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="1042" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1042" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1042" s="2" t="s">
         <v>2071</v>
-      </c>
-      <c r="B1042" s="2" t="s">
-        <v>2072</v>
       </c>
     </row>
     <row r="1043" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1043" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1043" s="2" t="s">
         <v>2073</v>
-      </c>
-      <c r="B1043" s="2" t="s">
-        <v>2074</v>
       </c>
     </row>
     <row r="1044" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1044" s="2" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1044" s="2" t="s">
         <v>305</v>
@@ -15285,338 +15285,338 @@
     </row>
     <row r="1045" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1045" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1045" s="2" t="s">
         <v>2076</v>
-      </c>
-      <c r="B1045" s="2" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="1046" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1046" s="2" t="s">
         <v>2078</v>
-      </c>
-      <c r="B1046" s="2" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="1047" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1047" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1047" s="2" t="s">
         <v>2080</v>
-      </c>
-      <c r="B1047" s="2" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="1048" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1048" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1048" s="2" t="s">
         <v>2082</v>
-      </c>
-      <c r="B1048" s="2" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="1049" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1049" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1049" s="2" t="s">
         <v>2084</v>
-      </c>
-      <c r="B1049" s="2" t="s">
-        <v>2085</v>
       </c>
     </row>
     <row r="1050" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1050" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1050" s="2" t="s">
         <v>2086</v>
-      </c>
-      <c r="B1050" s="2" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1051" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1051" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1051" s="2" t="s">
         <v>2088</v>
-      </c>
-      <c r="B1051" s="2" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="1052" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1052" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1052" s="2" t="s">
         <v>2090</v>
-      </c>
-      <c r="B1052" s="2" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="1053" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1053" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B1053" s="2" t="s">
         <v>2092</v>
-      </c>
-      <c r="B1053" s="2" t="s">
-        <v>2093</v>
       </c>
     </row>
     <row r="1054" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1054" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1054" s="2" t="s">
         <v>2094</v>
-      </c>
-      <c r="B1054" s="2" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="1055" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1055" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1055" s="2" t="s">
         <v>2096</v>
-      </c>
-      <c r="B1055" s="2" t="s">
-        <v>2097</v>
       </c>
     </row>
     <row r="1056" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1056" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1056" s="2" t="s">
         <v>2098</v>
-      </c>
-      <c r="B1056" s="2" t="s">
-        <v>2099</v>
       </c>
     </row>
     <row r="1057" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1057" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1057" s="2" t="s">
         <v>2100</v>
-      </c>
-      <c r="B1057" s="2" t="s">
-        <v>2101</v>
       </c>
     </row>
     <row r="1058" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1058" s="2" t="s">
         <v>2102</v>
-      </c>
-      <c r="B1058" s="2" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="1059" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1059" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1059" s="2" t="s">
         <v>2104</v>
-      </c>
-      <c r="B1059" s="2" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="1060" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1060" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1060" s="2" t="s">
         <v>2106</v>
-      </c>
-      <c r="B1060" s="2" t="s">
-        <v>2107</v>
       </c>
     </row>
     <row r="1061" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1061" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1061" s="2" t="s">
         <v>2108</v>
-      </c>
-      <c r="B1061" s="2" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="1062" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1062" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1062" s="2" t="s">
         <v>2110</v>
-      </c>
-      <c r="B1062" s="2" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="1063" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1063" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1063" s="2" t="s">
         <v>2112</v>
-      </c>
-      <c r="B1063" s="2" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="1064" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1064" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1064" s="2" t="s">
         <v>2114</v>
-      </c>
-      <c r="B1064" s="2" t="s">
-        <v>2115</v>
       </c>
     </row>
     <row r="1065" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1065" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1065" s="2" t="s">
         <v>2116</v>
-      </c>
-      <c r="B1065" s="2" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="1066" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1066" s="2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B1066" s="2" t="s">
         <v>2118</v>
-      </c>
-      <c r="B1066" s="2" t="s">
-        <v>2119</v>
       </c>
     </row>
     <row r="1067" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1067" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1067" s="2" t="s">
         <v>2120</v>
-      </c>
-      <c r="B1067" s="2" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="1068" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1068" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1068" s="2" t="s">
         <v>2122</v>
-      </c>
-      <c r="B1068" s="2" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="1069" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1069" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1069" s="2" t="s">
         <v>2124</v>
-      </c>
-      <c r="B1069" s="2" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="1070" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1070" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1070" s="2" t="s">
         <v>2126</v>
-      </c>
-      <c r="B1070" s="2" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="1071" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1071" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1071" s="2" t="s">
         <v>2128</v>
-      </c>
-      <c r="B1071" s="2" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="1072" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1072" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1072" s="2" t="s">
         <v>2130</v>
-      </c>
-      <c r="B1072" s="2" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1073" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1073" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1073" s="2" t="s">
         <v>2132</v>
-      </c>
-      <c r="B1073" s="2" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="1074" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1074" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1074" s="2" t="s">
         <v>2134</v>
-      </c>
-      <c r="B1074" s="2" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="1075" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1075" s="2" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B1075" s="2" t="s">
         <v>2136</v>
-      </c>
-      <c r="B1075" s="2" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="1076" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1076" s="2" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1076" s="2" t="s">
         <v>2138</v>
-      </c>
-      <c r="B1076" s="2" t="s">
-        <v>2139</v>
       </c>
     </row>
     <row r="1077" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1077" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1077" s="2" t="s">
         <v>2140</v>
-      </c>
-      <c r="B1077" s="2" t="s">
-        <v>2141</v>
       </c>
     </row>
     <row r="1078" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1078" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B1078" s="2" t="s">
         <v>2142</v>
-      </c>
-      <c r="B1078" s="2" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="1079" spans="1:2" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1079" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1079" s="2" t="s">
         <v>2144</v>
-      </c>
-      <c r="B1079" s="2" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="1080" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1080" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1080" s="2" t="s">
         <v>2146</v>
-      </c>
-      <c r="B1080" s="2" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="1081" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1081" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1081" s="2" t="s">
         <v>2148</v>
-      </c>
-      <c r="B1081" s="2" t="s">
-        <v>2149</v>
       </c>
     </row>
     <row r="1082" spans="1:2" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1082" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1082" s="2" t="s">
         <v>2150</v>
-      </c>
-      <c r="B1082" s="2" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="1083" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1083" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1083" s="2" t="s">
         <v>2152</v>
-      </c>
-      <c r="B1083" s="2" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="1084" spans="1:2" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1084" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1084" s="2" t="s">
         <v>2154</v>
-      </c>
-      <c r="B1084" s="2" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="1085" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1085" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1085" s="2" t="s">
         <v>2156</v>
-      </c>
-      <c r="B1085" s="2" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="1086" spans="1:2" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1086" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1086" s="2" t="s">
         <v>2158</v>
-      </c>
-      <c r="B1086" s="2" t="s">
-        <v>2159</v>
       </c>
     </row>
   </sheetData>
